--- a/validations/Number_CNN/resultats.xlsx
+++ b/validations/Number_CNN/resultats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Accuracy</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>F1-Score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +496,12 @@
       <c r="F2" t="n">
         <v>1</v>
       </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -508,6 +524,12 @@
       <c r="F3" t="n">
         <v>1</v>
       </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -530,6 +552,12 @@
       <c r="F4" t="n">
         <v>1</v>
       </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -552,6 +580,12 @@
       <c r="F5" t="n">
         <v>1</v>
       </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -574,6 +608,12 @@
       <c r="F6" t="n">
         <v>1</v>
       </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -596,6 +636,12 @@
       <c r="F7" t="n">
         <v>1</v>
       </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -618,6 +664,12 @@
       <c r="F8" t="n">
         <v>1</v>
       </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -640,6 +692,12 @@
       <c r="F9" t="n">
         <v>1</v>
       </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -662,6 +720,12 @@
       <c r="F10" t="n">
         <v>1</v>
       </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -684,6 +748,12 @@
       <c r="F11" t="n">
         <v>1</v>
       </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -706,6 +776,12 @@
       <c r="F12" t="n">
         <v>1</v>
       </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -728,6 +804,12 @@
       <c r="F13" t="n">
         <v>1</v>
       </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -750,6 +832,12 @@
       <c r="F14" t="n">
         <v>1</v>
       </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -772,6 +860,12 @@
       <c r="F15" t="n">
         <v>1</v>
       </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -794,6 +888,12 @@
       <c r="F16" t="n">
         <v>1</v>
       </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -816,6 +916,12 @@
       <c r="F17" t="n">
         <v>1</v>
       </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -838,6 +944,12 @@
       <c r="F18" t="n">
         <v>1</v>
       </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -860,6 +972,12 @@
       <c r="F19" t="n">
         <v>1</v>
       </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -882,6 +1000,12 @@
       <c r="F20" t="n">
         <v>1</v>
       </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -904,6 +1028,12 @@
       <c r="F21" t="n">
         <v>1</v>
       </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -926,6 +1056,12 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -948,6 +1084,12 @@
       <c r="F23" t="n">
         <v>1</v>
       </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -970,6 +1112,12 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -992,6 +1140,12 @@
       <c r="F25" t="n">
         <v>1</v>
       </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1014,6 +1168,12 @@
       <c r="F26" t="n">
         <v>1</v>
       </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1036,6 +1196,12 @@
       <c r="F27" t="n">
         <v>1</v>
       </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1058,6 +1224,12 @@
       <c r="F28" t="n">
         <v>1</v>
       </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1080,6 +1252,12 @@
       <c r="F29" t="n">
         <v>1</v>
       </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1102,6 +1280,12 @@
       <c r="F30" t="n">
         <v>1</v>
       </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1124,6 +1308,12 @@
       <c r="F31" t="n">
         <v>1</v>
       </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1146,6 +1336,12 @@
       <c r="F32" t="n">
         <v>1</v>
       </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1168,6 +1364,12 @@
       <c r="F33" t="n">
         <v>1</v>
       </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1190,6 +1392,12 @@
       <c r="F34" t="n">
         <v>1</v>
       </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1212,6 +1420,12 @@
       <c r="F35" t="n">
         <v>1</v>
       </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1234,6 +1448,12 @@
       <c r="F36" t="n">
         <v>1</v>
       </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1256,6 +1476,12 @@
       <c r="F37" t="n">
         <v>1</v>
       </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1278,6 +1504,12 @@
       <c r="F38" t="n">
         <v>1</v>
       </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1300,6 +1532,12 @@
       <c r="F39" t="n">
         <v>1</v>
       </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1322,6 +1560,12 @@
       <c r="F40" t="n">
         <v>1</v>
       </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1344,6 +1588,12 @@
       <c r="F41" t="n">
         <v>1</v>
       </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1366,6 +1616,12 @@
       <c r="F42" t="n">
         <v>1</v>
       </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1388,6 +1644,12 @@
       <c r="F43" t="n">
         <v>1</v>
       </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1410,6 +1672,12 @@
       <c r="F44" t="n">
         <v>1</v>
       </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1432,6 +1700,12 @@
       <c r="F45" t="n">
         <v>1</v>
       </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1454,6 +1728,12 @@
       <c r="F46" t="n">
         <v>1</v>
       </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1476,6 +1756,12 @@
       <c r="F47" t="n">
         <v>1</v>
       </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1498,6 +1784,12 @@
       <c r="F48" t="n">
         <v>1</v>
       </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1520,6 +1812,12 @@
       <c r="F49" t="n">
         <v>1</v>
       </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1542,6 +1840,12 @@
       <c r="F50" t="n">
         <v>1</v>
       </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1562,6 +1866,12 @@
         <v>912</v>
       </c>
       <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
         <v>1</v>
       </c>
     </row>
